--- a/scenarios/cough/processes/Time.xlsx
+++ b/scenarios/cough/processes/Time.xlsx
@@ -73,25 +73,7 @@
     <t xml:space="preserve">Mehr als eine Woche</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">LOAD(TwoWays), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">JUMP(Safety)</t>
-    </r>
+    <t xml:space="preserve">LOAD(TwoWays); JUMP(Safety)</t>
   </si>
   <si>
     <t xml:space="preserve">one_week</t>
@@ -114,7 +96,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -159,12 +141,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -254,11 +230,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -304,10 +280,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -391,11 +363,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.38671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.85"/>
@@ -470,7 +442,7 @@
       <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="0" t="s">

--- a/scenarios/cough/processes/Time.xlsx
+++ b/scenarios/cough/processes/Time.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
   </si>
   <si>
     <t xml:space="preserve">time</t>
@@ -143,7 +149,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,7 +159,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3652A0"/>
-        <bgColor rgb="FF666699"/>
+        <bgColor rgb="FF2A6099"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF3652A0"/>
       </patternFill>
     </fill>
     <fill>
@@ -230,11 +242,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,11 +259,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,7 +333,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -361,10 +377,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -398,71 +414,77 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7"/>
       <c r="G2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>17</v>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>20</v>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
